--- a/applications/lloyds/memory_mapping.xlsx
+++ b/applications/lloyds/memory_mapping.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Input frame</t>
   </si>
@@ -39,52 +39,25 @@
     <t>Parameters</t>
   </si>
   <si>
-    <t>Base address</t>
-  </si>
-  <si>
     <t>Start address</t>
   </si>
   <si>
     <t>End address</t>
   </si>
   <si>
-    <t>Cluster centres</t>
-  </si>
-  <si>
-    <t>Kernel intermediate results</t>
-  </si>
-  <si>
-    <t>Output frame</t>
-  </si>
-  <si>
-    <t>AXI port</t>
-  </si>
-  <si>
-    <t>M_AXI_DATA_POINTS</t>
-  </si>
-  <si>
-    <t>M_AXI_CENTRES_IN</t>
-  </si>
-  <si>
-    <t>M_AXI_OUTPUT_R</t>
-  </si>
-  <si>
-    <t>Lloyds Kernel Core</t>
-  </si>
-  <si>
-    <t>Combiner Core</t>
-  </si>
-  <si>
-    <t>M_AXI_DATA_POINTS_IN</t>
-  </si>
-  <si>
-    <t>M_AXI_KERNEL_INFO_IN</t>
-  </si>
-  <si>
-    <t>M_AXI_CENTRES_OUT</t>
-  </si>
-  <si>
     <t>Base address (mem region shared with SW)</t>
+  </si>
+  <si>
+    <t>Cluster centres 1</t>
+  </si>
+  <si>
+    <t>Cluster centres 2</t>
+  </si>
+  <si>
+    <t>Kernel intermediate results 1</t>
+  </si>
+  <si>
+    <t>Kernel intermediate results 2</t>
   </si>
 </sst>
 </file>
@@ -437,10 +410,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D25"/>
+  <dimension ref="A2:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -499,7 +472,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="B8">
         <v>38400000</v>
@@ -507,10 +480,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -548,8 +521,8 @@
         <v>39000C00</v>
       </c>
       <c r="D13" t="str">
-        <f>DEC2HEX(HEX2DEC(C13)+B3*B4*2*B6-1)</f>
-        <v>39800BFF</v>
+        <f>DEC2HEX(HEX2DEC(C13)+B7*B5*B6-1)</f>
+        <v>390017FF</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -558,87 +531,24 @@
       </c>
       <c r="C14" t="str">
         <f>DEC2HEX(HEX2DEC(D13)+1)</f>
-        <v>39800C00</v>
+        <v>39001800</v>
       </c>
       <c r="D14" t="str">
         <f>DEC2HEX(HEX2DEC(C14)+B3*B4*B5*B6-1)</f>
-        <v>3A400BFF</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="1" t="s">
+        <v>39C017FF</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" t="str">
-        <f>C11</f>
-        <v>38400000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" t="str">
-        <f>C12</f>
-        <v>39000000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" t="str">
-        <f>C13</f>
-        <v>39000C00</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" t="str">
-        <f>C11</f>
-        <v>38400000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" t="str">
-        <f>C13</f>
-        <v>39000C00</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>21</v>
-      </c>
-      <c r="C25" t="str">
-        <f>C12</f>
-        <v>39000000</v>
+      <c r="C15" t="str">
+        <f>DEC2HEX(HEX2DEC(D14)+1)</f>
+        <v>39C01800</v>
+      </c>
+      <c r="D15" t="str">
+        <f>DEC2HEX(HEX2DEC(C15)+B3*B4*B5*B6-1)</f>
+        <v>3A8017FF</v>
       </c>
     </row>
   </sheetData>
